--- a/documentacao/Tecnologia da Informação/Produtc Backlog.xlsx
+++ b/documentacao/Tecnologia da Informação/Produtc Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Desktop\sdpiar\sdpiar\documentacao\Tecnologia da Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE385E0-7873-40F7-94D3-991F5FBF3AAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0109C08-E021-41A8-A560-FBB31F9BF49B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73ECE891-BCEF-4BE1-BC93-F9826F68B87E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -51,31 +51,31 @@
     <t>PRODUTC BACKLOG</t>
   </si>
   <si>
-    <t>Medir temperatura e umidade do ambiente e do solo</t>
-  </si>
-  <si>
-    <t>Sistema deve acionar corpo de bombeiros e moradores próximos</t>
-  </si>
-  <si>
-    <t>Site deve permitir cadastros</t>
-  </si>
-  <si>
-    <t>Dashboards de monitoramento</t>
-  </si>
-  <si>
     <t>Sistema deve acionar irrigação automática</t>
   </si>
   <si>
-    <t>5 semanas</t>
-  </si>
-  <si>
-    <t>4 semanas</t>
-  </si>
-  <si>
-    <t>1 semana</t>
-  </si>
-  <si>
-    <t>6 semanas</t>
+    <t>Site institucional</t>
+  </si>
+  <si>
+    <t>Medir temperatura e umidade nas áreas rurais e florestas</t>
+  </si>
+  <si>
+    <t>Armazenar os dados coletados</t>
+  </si>
+  <si>
+    <t>Sistema deve acionar corpo de bombeiros</t>
+  </si>
+  <si>
+    <t>Sistema deve alertar moradores próximos em caso de incêndio</t>
+  </si>
+  <si>
+    <t>Isa</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Anderson</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,16 +122,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDFE790-9CD7-47BC-A957-73E33D9B9D77}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +472,7 @@
     <col min="5" max="5" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -469,7 +481,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,90 +497,90 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
